--- a/Проекты.xlsx
+++ b/Проекты.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Название проекта</t>
   </si>
@@ -68,18 +68,40 @@
   </si>
   <si>
     <t>Кирилл Гайкин</t>
+  </si>
+  <si>
+    <t>Hacker Craft</t>
+  </si>
+  <si>
+    <t>iaWy-KWmK-UOxH-D3DC-40SE</t>
+  </si>
+  <si>
+    <t>0 (планирование и задумка)</t>
+  </si>
+  <si>
+    <t>Ores Time</t>
+  </si>
+  <si>
+    <t>6nf3-nBlV-efI7-SQjQ-Qx3d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -103,8 +125,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -409,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,7 +509,54 @@
         <v>17</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>